--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1277,7 +1277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>124</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>130</v>
       </c>
@@ -3044,12 +3044,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK21">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -147,7 +147,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Consent</t>
   </si>
   <si>
     <t>ID</t>

--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-data-localization.xlsx
+++ b/output/StructureDefinition-data-localization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
